--- a/Pedidos/DataExcel/Cargos_Logisticos.xlsx
+++ b/Pedidos/DataExcel/Cargos_Logisticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Idioma</t>
   </si>
@@ -44,24 +44,6 @@
   </si>
   <si>
     <t>NombreCargo2</t>
-  </si>
-  <si>
-    <t>automated.test@grupokaizen.net</t>
-  </si>
-  <si>
-    <t>aeHFOx8jV/A=</t>
-  </si>
-  <si>
-    <t>Aprobado</t>
-  </si>
-  <si>
-    <t>AES (Declaración de exportación del embarcador)</t>
-  </si>
-  <si>
-    <t>DRAYAGE Local</t>
-  </si>
-  <si>
-    <t>Seguro</t>
   </si>
 </sst>
 </file>
@@ -419,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -457,70 +439,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>265</v>
-      </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>266</v>
-      </c>
-      <c r="E3">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Pedidos/DataExcel/Cargos_Logisticos.xlsx
+++ b/Pedidos/DataExcel/Cargos_Logisticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Idioma</t>
   </si>
@@ -44,6 +44,21 @@
   </si>
   <si>
     <t>NombreCargo2</t>
+  </si>
+  <si>
+    <t>automated.test@grupokaizen.net</t>
+  </si>
+  <si>
+    <t>aeHFOx8jV/A=</t>
+  </si>
+  <si>
+    <t>Aprobado</t>
+  </si>
+  <si>
+    <t>Guía de carga</t>
+  </si>
+  <si>
+    <t>Contendor de carga 20</t>
   </si>
 </sst>
 </file>
@@ -401,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,6 +454,38 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>275</v>
+      </c>
+      <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Pedidos/DataExcel/Cargos_Logisticos.xlsx
+++ b/Pedidos/DataExcel/Cargos_Logisticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Idioma</t>
   </si>
@@ -55,10 +55,16 @@
     <t>Aprobado</t>
   </si>
   <si>
-    <t>Guía de carga</t>
+    <t>FLEXIBAG ARM</t>
+  </si>
+  <si>
+    <t>TRI-AXLE CHASSIS</t>
   </si>
   <si>
     <t>Contendor de carga 20</t>
+  </si>
+  <si>
+    <t>Carga del Oceano</t>
   </si>
 </sst>
 </file>
@@ -416,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,13 +474,13 @@
         <v>275</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -483,7 +489,39 @@
         <v>30</v>
       </c>
       <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>276</v>
+      </c>
+      <c r="E3">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
         <v>14</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
